--- a/data/534/MOSPI/KAPSARC/TAPSCE_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TAPSCE_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAPSCE" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,23 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1970</v>
@@ -541,9 +526,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>71240</v>
@@ -678,7 +665,7 @@
         <v>722563</v>
       </c>
       <c r="AT2" t="n">
-        <v>827516.0000000001</v>
+        <v>827516</v>
       </c>
       <c r="AU2" t="n">
         <v>847576</v>
@@ -690,16 +677,18 @@
         <v>896086</v>
       </c>
       <c r="AX2" t="n">
-        <v>958248.9999999999</v>
+        <v>958249</v>
       </c>
       <c r="AY2" t="n">
         <v>1002153.28</v>
       </c>
-      <c r="AZ2" t="s"/>
+      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>18510</v>
@@ -851,11 +840,13 @@
       <c r="AY3" t="n">
         <v>259123.931966244</v>
       </c>
-      <c r="AZ3" t="s"/>
+      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Natural Gas</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>650</v>
@@ -981,7 +972,7 @@
         <v>64159.29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>64450.33362487021</v>
+        <v>64450.3336248702</v>
       </c>
       <c r="AR4" t="n">
         <v>57364.2365398185</v>
@@ -990,7 +981,7 @@
         <v>52371.5768022769</v>
       </c>
       <c r="AT4" t="n">
-        <v>51295.72581533029</v>
+        <v>51295.7258153303</v>
       </c>
       <c r="AU4" t="n">
         <v>52512.8551574423</v>
@@ -1007,7 +998,7 @@
       <c r="AY4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="AZ4" t="s"/>
+      <c r="AZ4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/534/MOSPI/KAPSARC/TAPSCE_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TAPSCE_historical.xlsx
@@ -1,37 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAPSCE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TAPSCE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +66,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +85,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,654 +382,637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1970</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1971</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1972</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1973</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1974</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1975</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1976</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1977</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1978</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1979</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1980</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1981</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1982</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1983</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1984</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1985</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1986</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1987</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1988</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1989</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1990</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1991</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1992</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1993</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1994</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1995</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1996</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1997</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1998</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1999</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>2000</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>2001</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>2002</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>2003</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>2004</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>2005</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>2006</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>2007</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>2008</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>2009</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>2011</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>2012</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>2013</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>2014</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>2015</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>2016</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>2017</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>2018</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>2019</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:52">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>71240</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>74070</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>78210</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>77680</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>85600</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>92170</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>100100</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>13840</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>100160</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>15540</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>109320</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>121020</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>130138</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>139302</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>141458</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>155540</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>166846</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>180645</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>193970</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>29481</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>214990</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>232338</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>245255</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>256327</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>269180</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>284040</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>298621</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>36824</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>310738</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>315047</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>325448</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>343120</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>361750</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>379410</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>404690</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>433270</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>482370</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>507680</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>550643</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>620390</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>607060.598</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>642630.626</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>688753</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>722563</v>
       </c>
-      <c r="AT2" t="n">
-        <v>827516</v>
-      </c>
-      <c r="AU2" t="n">
+      <c r="AT2">
+        <v>827516.0000000001</v>
+      </c>
+      <c r="AU2">
         <v>847576</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>858576</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>896086</v>
       </c>
-      <c r="AX2" t="n">
-        <v>958249</v>
-      </c>
-      <c r="AY2" t="n">
+      <c r="AX2">
+        <v>958248.9999999999</v>
+      </c>
+      <c r="AY2">
         <v>1002153.28</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Crude Oil</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:52">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>18510</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>20250</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>19405</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>21044</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>21700</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>22070</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>22946</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>25270</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>26290</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>27887</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>26760</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>30654</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>33460</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>36465</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>36154</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>44780</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>45956</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>48091</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>49855</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>53577</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>53720</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>54340</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>56197</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>57848</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>59588</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>62510</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>66806</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>68351</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>72530</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>89754</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>106523</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>110740</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>115030</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>123810</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>129840</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>130110</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>145490</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>155790</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>166281</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>192950</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>201278.68</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>209818.834097221</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>222657.23388938</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>227026.642783375</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>226895.854544024</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>239792.243731363</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>249940.658530235</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>256117.125030831</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>260700.860028923</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>259123.931966244</v>
       </c>
-      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Natural Gas</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:52">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>650</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>718</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>771</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>762</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>951</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1130</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1381</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1464</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1711</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1676</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1520</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>2222</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>2957</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>3401</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>4141</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>4950</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>7075</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>7968</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>9250</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>11172</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>12770</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>14441</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>16116</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>16340</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>17337</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>18090</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>21324</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>24545</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>25706</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>26885</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>96520</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>28040</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>29960</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>30910</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>30780</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>36390</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>37600</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>39800</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>40910</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>59410</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>64159.29</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>64450.3336248702</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="AQ4">
+        <v>64450.33362487021</v>
+      </c>
+      <c r="AR4">
         <v>57364.2365398185</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>52371.5768022769</v>
       </c>
-      <c r="AT4" t="n">
-        <v>51295.7258153303</v>
-      </c>
-      <c r="AU4" t="n">
+      <c r="AT4">
+        <v>51295.72581533029</v>
+      </c>
+      <c r="AU4">
         <v>52512.8551574423</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>55697.9176189682</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>59170.1564660069</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>60794.3879625495</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>64143.2120090671</v>
       </c>
-      <c r="AZ4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/534/MOSPI/KAPSARC/TAPSCE_historical.xlsx
+++ b/data/534/MOSPI/KAPSARC/TAPSCE_historical.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TAPSCE" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAPSCE" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -85,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -382,637 +353,654 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AZ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>71240</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>74070</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>78210</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>77680</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>85600</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>92170</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>100100</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>13840</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>100160</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>15540</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>109320</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>121020</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>130138</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>139302</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>141458</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>155540</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>166846</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>180645</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>193970</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>29481</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>214990</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>232338</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>245255</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>256327</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>269180</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>284040</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>298621</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>36824</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>310738</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>315047</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>325448</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>343120</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>361750</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>379410</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>404690</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>433270</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>482370</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>507680</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>550643</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>620390</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>607060.598</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>642630.626</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>688753</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>722563</v>
       </c>
-      <c r="AT2">
-        <v>827516.0000000001</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2" t="n">
+        <v>827516</v>
+      </c>
+      <c r="AU2" t="n">
         <v>847576</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>858576</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>896086</v>
       </c>
-      <c r="AX2">
-        <v>958248.9999999999</v>
-      </c>
-      <c r="AY2">
+      <c r="AX2" t="n">
+        <v>958249</v>
+      </c>
+      <c r="AY2" t="n">
         <v>1002153.28</v>
       </c>
+      <c r="AZ2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>18510</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>20250</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>19405</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>21044</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>21700</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>22070</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>22946</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>25270</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>26290</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>27887</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>26760</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>30654</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>33460</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>36465</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>36154</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>44780</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>45956</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>48091</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>49855</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>53577</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>53720</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>54340</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>56197</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>57848</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>59588</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>62510</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>66806</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>68351</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>72530</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>89754</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>106523</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>110740</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>115030</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>123810</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>129840</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>130110</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>145490</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>155790</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>166281</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>192950</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>201278.68</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>209818.834097221</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>222657.23388938</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>227026.642783375</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>226895.854544024</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>239792.243731363</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>249940.658530235</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>256117.125030831</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>260700.860028923</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>259123.931966244</v>
       </c>
+      <c r="AZ3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Natural Gas</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>650</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>718</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>771</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>762</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>951</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1130</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>1381</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1464</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>1711</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1676</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1520</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>2222</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>2957</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>3401</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>4141</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>4950</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>7075</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>7968</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>9250</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>11172</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>12770</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>14441</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>16116</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>16340</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>17337</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>18090</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>21324</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>24545</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>25706</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>26885</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>96520</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>28040</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>29960</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>30910</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>30780</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>36390</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>37600</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>39800</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>40910</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>59410</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="AQ4">
-        <v>64450.33362487021</v>
-      </c>
-      <c r="AR4">
+      <c r="AQ4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="AR4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="AT4">
-        <v>51295.72581533029</v>
-      </c>
-      <c r="AU4">
+      <c r="AT4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="AU4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>64143.2120090671</v>
       </c>
+      <c r="AZ4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>